--- a/public/download/guestinfo.xlsx
+++ b/public/download/guestinfo.xlsx
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">DR-89783210</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:11:01</t>
+    <t xml:space="preserve">2018-05-15 13:11:01</t>
   </si>
   <si>
     <t xml:space="preserve">賴筱蓉</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">DR89772821</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:19:40</t>
+    <t xml:space="preserve">2018-05-15 13:19:40</t>
   </si>
   <si>
     <t xml:space="preserve">茆琬汝</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">DR-89772713</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:24:01</t>
+    <t xml:space="preserve">2018-05-15 13:24:01</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 高雄明誠店</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">DR89794034</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:25:23</t>
+    <t xml:space="preserve">2018-05-15 13:25:23</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 台南崇明店</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">DR89787174</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:26:20</t>
+    <t xml:space="preserve">2018-05-15 13:26:20</t>
   </si>
   <si>
     <t xml:space="preserve">蔡家瑜</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">DR89794035</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:27:31</t>
+    <t xml:space="preserve">2018-05-15 13:27:31</t>
   </si>
   <si>
     <t xml:space="preserve">傅楨慈</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">DR89728002</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:30:51</t>
+    <t xml:space="preserve">2018-05-15 13:30:51</t>
   </si>
   <si>
     <t xml:space="preserve">彭永芬</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">DR89772777</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:38:44</t>
+    <t xml:space="preserve">2018-05-15 13:38:44</t>
   </si>
   <si>
     <t xml:space="preserve">王幸子</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">DR89737044</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 01:58:27</t>
+    <t xml:space="preserve">2018-05-15 13:58:27</t>
   </si>
   <si>
     <t xml:space="preserve">黃易瑩</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">EX:DR89787194</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 02:10:50</t>
+    <t xml:space="preserve">2018-05-15 14:10:50</t>
   </si>
   <si>
     <t xml:space="preserve">2018-05-23</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">DR89775590</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 02:47:09</t>
+    <t xml:space="preserve">2018-05-15 14:47:09</t>
   </si>
   <si>
     <t xml:space="preserve">劉虹君</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">DR89746825</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 02:54:14</t>
+    <t xml:space="preserve">2018-05-15 14:54:14</t>
   </si>
   <si>
     <t xml:space="preserve">陳佳縈</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">DR-89727901</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 02:58:52</t>
+    <t xml:space="preserve">2018-05-15 14:58:52</t>
   </si>
   <si>
     <t xml:space="preserve">M222138042</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">DR89767157</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:21:46</t>
+    <t xml:space="preserve">2018-05-15 15:21:46</t>
   </si>
   <si>
     <t xml:space="preserve">柯乃瑛</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">DR89779635</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:22:03</t>
+    <t xml:space="preserve">2018-05-15 15:22:03</t>
   </si>
   <si>
     <t xml:space="preserve">何佩珊</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">DR89776396</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:23:45</t>
+    <t xml:space="preserve">2018-05-15 15:23:45</t>
   </si>
   <si>
     <t xml:space="preserve">8QeZW</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">DR89737082</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:26:57</t>
+    <t xml:space="preserve">2018-05-15 15:26:57</t>
   </si>
   <si>
     <t xml:space="preserve">許桂慈</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">DY37067808</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:41:53</t>
+    <t xml:space="preserve">2018-05-15 15:41:53</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 台北士東店</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">1234</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:43:09</t>
+    <t xml:space="preserve">2018-05-15 15:43:09</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 中和景新店</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">DR89742114</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:46:24</t>
+    <t xml:space="preserve">2018-05-15 15:46:24</t>
   </si>
   <si>
     <t xml:space="preserve">宮嬋娟</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">DR89783279</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 03:52:32</t>
+    <t xml:space="preserve">2018-05-15 15:52:32</t>
   </si>
   <si>
     <t xml:space="preserve">2018-06-18</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">DR89760716</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 04:00:44</t>
+    <t xml:space="preserve">2018-05-15 16:00:44</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 台北南東店</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">DR89737081</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 04:04:09</t>
+    <t xml:space="preserve">2018-05-15 16:04:09</t>
   </si>
   <si>
     <t xml:space="preserve">連明葉</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">DR89787037</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 04:04:10</t>
+    <t xml:space="preserve">2018-05-15 16:04:10</t>
   </si>
   <si>
     <t xml:space="preserve">NAKw1</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">DR89760714</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 04:09:26</t>
+    <t xml:space="preserve">2018-05-15 16:09:26</t>
   </si>
   <si>
     <t xml:space="preserve">AMn47</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 04:13:28</t>
+    <t xml:space="preserve">2018-05-15 16:13:28</t>
   </si>
   <si>
     <t xml:space="preserve">林育恒</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">DR89786913</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 04:38:28</t>
+    <t xml:space="preserve">2018-05-15 16:38:28</t>
   </si>
   <si>
     <t xml:space="preserve">李冠嬅</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">DR89786971</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 05:15:19</t>
+    <t xml:space="preserve">2018-05-15 17:15:19</t>
   </si>
   <si>
     <t xml:space="preserve">蔡紅香</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">DR89786970</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 05:18:23</t>
+    <t xml:space="preserve">2018-05-15 17:18:23</t>
   </si>
   <si>
     <t xml:space="preserve">簡意眞</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">DR89791116</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 07:04:38</t>
+    <t xml:space="preserve">2018-05-15 19:04:38</t>
   </si>
   <si>
     <t xml:space="preserve">廖秀敏</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">DR89763248</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 11:35:29</t>
+    <t xml:space="preserve">2018-05-15 23:35:29</t>
   </si>
   <si>
     <t xml:space="preserve">oyXxh</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">DR89763249</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-15 11:37:48</t>
+    <t xml:space="preserve">2018-05-15 23:37:48</t>
   </si>
   <si>
     <t xml:space="preserve">11:00</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">DR89783111</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 12:41:03</t>
+    <t xml:space="preserve">2018-05-16 00:41:03</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 沙鹿中山店</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">DR89759044</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 12:44:46</t>
+    <t xml:space="preserve">2018-05-16 00:44:46</t>
   </si>
   <si>
     <t xml:space="preserve">測試</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">DR89746932</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 01:12:53</t>
+    <t xml:space="preserve">2018-05-16 13:12:53</t>
   </si>
   <si>
     <t xml:space="preserve">曹嘉容</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">DR89772747</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 01:13:10</t>
+    <t xml:space="preserve">2018-05-16 13:13:10</t>
   </si>
   <si>
     <t xml:space="preserve">黃若慈</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">DR89774754</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 01:15:36</t>
+    <t xml:space="preserve">2018-05-16 13:15:36</t>
   </si>
   <si>
     <t xml:space="preserve">陳姮年</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">DR89727877</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 01:37:03</t>
+    <t xml:space="preserve">2018-05-16 13:37:03</t>
   </si>
   <si>
     <t xml:space="preserve">楊蕎溱</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">DR89774205</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 01:48:27</t>
+    <t xml:space="preserve">2018-05-16 13:48:27</t>
   </si>
   <si>
     <t xml:space="preserve">黎洛玲</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">Dr89747714</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 01:53:53</t>
+    <t xml:space="preserve">2018-05-16 13:53:53</t>
   </si>
   <si>
     <t xml:space="preserve">祁子方</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">DR-89773322</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 02:00:37</t>
+    <t xml:space="preserve">2018-05-16 14:00:37</t>
   </si>
   <si>
     <t xml:space="preserve">黃艷芬</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">DR89772824</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 02:24:53</t>
+    <t xml:space="preserve">2018-05-16 14:24:53</t>
   </si>
   <si>
     <t xml:space="preserve">區穎琦</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">DR89776343</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 02:43:00</t>
+    <t xml:space="preserve">2018-05-16 14:43:00</t>
   </si>
   <si>
     <t xml:space="preserve">葉碧珠</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">DR89794106</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 02:51:02</t>
+    <t xml:space="preserve">2018-05-16 14:51:02</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 鳳山五甲二店</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">DR89796432</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 02:56:21</t>
+    <t xml:space="preserve">2018-05-16 14:56:21</t>
   </si>
   <si>
     <t xml:space="preserve">吳芊慧</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">DR89772710</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 02:58:49</t>
+    <t xml:space="preserve">2018-05-16 14:58:49</t>
   </si>
   <si>
     <t xml:space="preserve">陳艾筠</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">Dr89727821</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:04:30</t>
+    <t xml:space="preserve">2018-05-16 15:04:30</t>
   </si>
   <si>
     <t xml:space="preserve">尤政宇</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">Dr-89727820</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:11:38</t>
+    <t xml:space="preserve">2018-05-16 15:11:38</t>
   </si>
   <si>
     <t xml:space="preserve">林秀真</t>
@@ -3488,7 +3488,7 @@
     <t xml:space="preserve">DR-89754117</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:11:50</t>
+    <t xml:space="preserve">2018-05-16 15:11:50</t>
   </si>
   <si>
     <t xml:space="preserve">梁雅玲</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">DR89741700</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:18:17</t>
+    <t xml:space="preserve">2018-05-16 15:18:17</t>
   </si>
   <si>
     <t xml:space="preserve">羅妤芝</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">DR89774283</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:28:02</t>
+    <t xml:space="preserve">2018-05-16 15:28:02</t>
   </si>
   <si>
     <t xml:space="preserve">徐金秀</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">DR89787287</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:38:18</t>
+    <t xml:space="preserve">2018-05-16 15:38:18</t>
   </si>
   <si>
     <t xml:space="preserve">黃楨喻</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">DR89727928</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:47:35</t>
+    <t xml:space="preserve">2018-05-16 15:47:35</t>
   </si>
   <si>
     <t xml:space="preserve">梁鳳英</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">DR89727930</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:51:48</t>
+    <t xml:space="preserve">2018-05-16 15:51:48</t>
   </si>
   <si>
     <t xml:space="preserve">劉莉蓁</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">BU89763406</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 03:54:22</t>
+    <t xml:space="preserve">2018-05-16 15:54:22</t>
   </si>
   <si>
     <t xml:space="preserve">鄭春夏</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">DR89793057</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 05:33:43</t>
+    <t xml:space="preserve">2018-05-16 17:33:43</t>
   </si>
   <si>
     <t xml:space="preserve">S220758612</t>
@@ -3632,7 +3632,7 @@
     <t xml:space="preserve">DR-89793058</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 10:35:44</t>
+    <t xml:space="preserve">2018-05-16 22:35:44</t>
   </si>
   <si>
     <t xml:space="preserve">1987-10-18</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">DR89783165</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 11:09:41</t>
+    <t xml:space="preserve">2018-05-16 23:09:41</t>
   </si>
   <si>
     <t xml:space="preserve">0YwDG</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">Dr89727820</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-16 11:45:44</t>
+    <t xml:space="preserve">2018-05-16 23:45:44</t>
   </si>
   <si>
     <t xml:space="preserve">陳湘穎</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">DR89791301</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 12:35:33</t>
+    <t xml:space="preserve">2018-05-17 00:35:33</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 基隆義一店</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">UGN7R</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 02:40:29</t>
+    <t xml:space="preserve">2018-05-17 14:40:29</t>
   </si>
   <si>
     <t xml:space="preserve">sb03a</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">DR89736952</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 02:42:02</t>
+    <t xml:space="preserve">2018-05-17 14:42:02</t>
   </si>
   <si>
     <t xml:space="preserve">不符合的人</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">PhIZ9</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 02:48:04</t>
+    <t xml:space="preserve">2018-05-17 14:48:04</t>
   </si>
   <si>
     <t xml:space="preserve">同時重複1</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">DR89736951</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 02:56:06</t>
+    <t xml:space="preserve">2018-05-17 14:56:06</t>
   </si>
   <si>
     <t xml:space="preserve">同時重複2</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">rNQvb</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 02:57:05</t>
+    <t xml:space="preserve">2018-05-17 14:57:05</t>
   </si>
   <si>
     <t xml:space="preserve">同時重複驗證1</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">DR89736953</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:03:58</t>
+    <t xml:space="preserve">2018-05-17 15:03:58</t>
   </si>
   <si>
     <t xml:space="preserve">同時重複驗證2</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">7rzzp</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:04:54</t>
+    <t xml:space="preserve">2018-05-17 15:04:54</t>
   </si>
   <si>
     <t xml:space="preserve">同時重複驗證3</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">VxWSz</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:06:20</t>
+    <t xml:space="preserve">2018-05-17 15:06:20</t>
   </si>
   <si>
     <t xml:space="preserve">重複1</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">DR89736954</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:20:43</t>
+    <t xml:space="preserve">2018-05-17 15:20:43</t>
   </si>
   <si>
     <t xml:space="preserve">重複2</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">A4jQD</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:21:28</t>
+    <t xml:space="preserve">2018-05-17 15:21:28</t>
   </si>
   <si>
     <t xml:space="preserve">重複3</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">eHhiR</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:22:06</t>
+    <t xml:space="preserve">2018-05-17 15:22:06</t>
   </si>
   <si>
     <t xml:space="preserve">晚上船測試</t>
@@ -3929,7 +3929,7 @@
     <t xml:space="preserve">3333</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-17 03:27:26</t>
+    <t xml:space="preserve">2018-05-17 15:27:26</t>
   </si>
   <si>
     <t xml:space="preserve">EASY SHOP 台北龍江店</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">DjdKE</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 01:41:22</t>
+    <t xml:space="preserve">2018-05-18 13:41:22</t>
   </si>
   <si>
     <t xml:space="preserve">客資重複</t>
@@ -3998,7 +3998,7 @@
     <t xml:space="preserve">AA88888123</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 02:01:45</t>
+    <t xml:space="preserve">2018-05-18 14:01:45</t>
   </si>
   <si>
     <t xml:space="preserve">930597708</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">PSA2p</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 02:08:33</t>
+    <t xml:space="preserve">2018-05-18 14:08:33</t>
   </si>
   <si>
     <t xml:space="preserve">尺寸不</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">AC12399912</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 02:34:50</t>
+    <t xml:space="preserve">2018-05-18 14:34:50</t>
   </si>
   <si>
     <t xml:space="preserve">新尺寸測試</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">AD12342344</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 04:53:52</t>
+    <t xml:space="preserve">2018-05-18 16:53:52</t>
   </si>
   <si>
     <t xml:space="preserve">新尺寸2</t>
@@ -4046,7 +4046,7 @@
     <t xml:space="preserve">JI12324353</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 04:56:01</t>
+    <t xml:space="preserve">2018-05-18 16:56:01</t>
   </si>
   <si>
     <t xml:space="preserve">新尺寸3</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">DR89736974</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-05-18 04:59:21</t>
+    <t xml:space="preserve">2018-05-18 16:59:21</t>
   </si>
   <si>
     <t xml:space="preserve">1234123412</t>
